--- a/clean/unit/clean_unit/10511C.xlsx
+++ b/clean/unit/clean_unit/10511C.xlsx
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>51264</v>
+        <v>51270</v>
       </c>
     </row>
     <row r="3">
@@ -447,7 +447,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>g/l;;;ug/l</t>
+          <t>ug/l</t>
         </is>
       </c>
       <c r="D5">
@@ -522,7 +522,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>g/l;;;ug/l</t>
+          <t>ug/l</t>
         </is>
       </c>
       <c r="D9">

--- a/clean/unit/clean_unit/10511C.xlsx
+++ b/clean/unit/clean_unit/10511C.xlsx
@@ -370,7 +370,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Assay_Unit</t>
+          <t>Unit_Clean</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
